--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -528,34 +528,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.68287882441169</v>
+        <v>7.727457666666666</v>
       </c>
       <c r="H2">
-        <v>1.68287882441169</v>
+        <v>23.182373</v>
       </c>
       <c r="I2">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="J2">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.17218078989781</v>
+        <v>4.276967</v>
       </c>
       <c r="N2">
-        <v>4.17218078989781</v>
+        <v>12.830901</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>7.021274702936263</v>
+        <v>33.05008143423033</v>
       </c>
       <c r="R2">
-        <v>7.021274702936263</v>
+        <v>297.450732908073</v>
       </c>
       <c r="S2">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="T2">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.2898123310647</v>
+        <v>37.42779933333333</v>
       </c>
       <c r="H3">
-        <v>37.2898123310647</v>
+        <v>112.283398</v>
       </c>
       <c r="I3">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264272</v>
       </c>
       <c r="J3">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264271</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.17218078989781</v>
+        <v>4.276967</v>
       </c>
       <c r="N3">
-        <v>4.17218078989781</v>
+        <v>12.830901</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>155.5798386665626</v>
+        <v>160.0774626312887</v>
       </c>
       <c r="R3">
-        <v>155.5798386665626</v>
+        <v>1440.697163681598</v>
       </c>
       <c r="S3">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264272</v>
       </c>
       <c r="T3">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.19941635361047</v>
+        <v>2.244565</v>
       </c>
       <c r="H4">
-        <v>2.19941635361047</v>
+        <v>6.733695</v>
       </c>
       <c r="I4">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989085</v>
       </c>
       <c r="J4">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989083</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.17218078989781</v>
+        <v>4.276967</v>
       </c>
       <c r="N4">
-        <v>4.17218078989781</v>
+        <v>12.830901</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>9.176362659520693</v>
+        <v>9.599930434355</v>
       </c>
       <c r="R4">
-        <v>9.176362659520693</v>
+        <v>86.39937390919501</v>
       </c>
       <c r="S4">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989085</v>
       </c>
       <c r="T4">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989083</v>
       </c>
     </row>
   </sheetData>
